--- a/surya_punctuation_5_6/surya_results_punctuation.xlsx
+++ b/surya_punctuation_5_6/surya_results_punctuation.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Surya\Google Drive\Operation\IZANAMI\2_macroevolution\surya_punctuation_5_5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s71z662\Documents\IZANAMI\2_macroevolution\surya_punctuation_5_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192244DC-B531-41A8-B602-877B22F98DC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{A29C0B7E-6BD4-4D3F-B20E-4D7D98D80CA9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={595A8741-3CB8-4DC6-86A0-2ECD1F9D334B}</author>
     <author>tc={4992A8AF-FFDD-4965-952F-230D2384B795}</author>
@@ -40,36 +39,72 @@
     <author>tc={FA3F6A17-A51A-4CBD-8C41-34C871AE34C5}</author>
   </authors>
   <commentList>
-    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{595A8741-3CB8-4DC6-86A0-2ECD1F9D334B}">
+    <comment ref="F18" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This intercept value is nonsensical.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="1" shapeId="0" xr:uid="{4992A8AF-FFDD-4965-952F-230D2384B795}">
+    <comment ref="F19" authorId="1" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This intercept value is nonsensical.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="2" shapeId="0" xr:uid="{BC9D21DD-94F7-4123-B96E-4C0E22AAC288}">
+    <comment ref="F20" authorId="2" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This intercept value is nonsensical.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F21" authorId="3" shapeId="0" xr:uid="{FA3F6A17-A51A-4CBD-8C41-34C871AE34C5}">
+    <comment ref="F21" authorId="3" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This intercept value is nonsensical.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -373,7 +408,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -815,19 +850,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65725C74-E320-49C2-9041-7CC34A4B5CCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="97.40625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -835,7 +870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -843,7 +878,7 @@
         <v>43957</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -851,7 +886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -859,7 +894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -867,12 +902,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -880,32 +915,32 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -913,7 +948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>68</v>
       </c>
@@ -921,7 +956,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -929,7 +964,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -937,7 +972,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
@@ -945,7 +980,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
@@ -953,7 +988,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
@@ -961,7 +996,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -969,7 +1004,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
@@ -977,7 +1012,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -985,7 +1020,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
@@ -993,7 +1028,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -1001,7 +1036,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
@@ -1009,7 +1044,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
@@ -1017,7 +1052,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
@@ -1025,7 +1060,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
@@ -1033,7 +1068,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
@@ -1041,7 +1076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -1049,7 +1084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>90</v>
       </c>
@@ -1057,7 +1092,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
@@ -1065,7 +1100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
@@ -1081,7 +1116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -1097,7 +1132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AACDFB8-7AE7-4540-B402-8A2C562F39AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1107,39 +1142,39 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.04296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.40625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.76953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.76953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="35" width="5.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="7.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="35" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>65</v>
       </c>
@@ -1258,7 +1293,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>67</v>
       </c>
@@ -1300,7 +1335,7 @@
         <v>58553.21</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>67</v>
       </c>
@@ -1329,7 +1364,7 @@
         <v>0.1541537</v>
       </c>
       <c r="W3" s="11"/>
-      <c r="AK3" s="7">
+      <c r="AK3" s="9">
         <v>17544.09</v>
       </c>
       <c r="AL3" s="6">
@@ -1339,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>67</v>
       </c>
@@ -1389,7 +1424,7 @@
         <v>58557.36</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>67</v>
       </c>
@@ -1434,7 +1469,7 @@
         <v>40.930000000000291</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>67</v>
       </c>
@@ -1491,7 +1526,7 @@
         <v>58214</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>67</v>
       </c>
@@ -1533,7 +1568,7 @@
       <c r="AJ7" s="12">
         <v>0.99995690000000004</v>
       </c>
-      <c r="AK7" s="7">
+      <c r="AK7" s="9">
         <v>17490.689999999999</v>
       </c>
       <c r="AL7" s="3">
@@ -1545,7 +1580,7 @@
       </c>
       <c r="AN7" s="3"/>
     </row>
-    <row r="8" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>67</v>
       </c>
@@ -1607,7 +1642,7 @@
         <v>58227.880000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>67</v>
       </c>
@@ -1653,7 +1688,7 @@
       <c r="AJ9" s="12">
         <v>0.99995619999999996</v>
       </c>
-      <c r="AK9" s="7">
+      <c r="AK9" s="9">
         <v>17451.400000000001</v>
       </c>
       <c r="AL9" s="3">
@@ -1665,7 +1700,7 @@
       </c>
       <c r="AN9" s="3"/>
     </row>
-    <row r="10" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>67</v>
       </c>
@@ -1749,7 +1784,7 @@
         <v>58132.76</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>67</v>
       </c>
@@ -1822,7 +1857,7 @@
       <c r="AJ11" s="12">
         <v>0.99995679999999998</v>
       </c>
-      <c r="AK11" s="7">
+      <c r="AK11" s="9">
         <v>17453.93</v>
       </c>
       <c r="AL11" s="7">
@@ -1834,7 +1869,7 @@
       </c>
       <c r="AN11" s="3"/>
     </row>
-    <row r="12" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>67</v>
       </c>
@@ -1945,7 +1980,7 @@
         <v>58095.62</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>67</v>
       </c>
@@ -2046,7 +2081,7 @@
       <c r="AJ13" s="12">
         <v>0.99996589999999996</v>
       </c>
-      <c r="AK13" s="7">
+      <c r="AK13" s="9">
         <v>17370.57</v>
       </c>
       <c r="AL13" s="3">
@@ -2058,7 +2093,7 @@
       </c>
       <c r="AN13" s="3"/>
     </row>
-    <row r="14" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>67</v>
       </c>
@@ -2097,7 +2132,7 @@
         <v>45669.119999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>67</v>
       </c>
@@ -2124,7 +2159,7 @@
       </c>
       <c r="U15" s="11"/>
       <c r="AJ15" s="12"/>
-      <c r="AK15" s="6">
+      <c r="AK15" s="10">
         <v>-11961.46</v>
       </c>
       <c r="AL15" s="7">
@@ -2136,7 +2171,7 @@
       </c>
       <c r="AN15" s="7"/>
     </row>
-    <row r="16" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>67</v>
       </c>
@@ -2188,7 +2223,7 @@
         <v>43874.76999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>67</v>
       </c>
@@ -2222,7 +2257,7 @@
       <c r="AJ17" s="12">
         <v>9.9469393622001894E-271</v>
       </c>
-      <c r="AK17" s="6">
+      <c r="AK17" s="10">
         <v>-11353.47</v>
       </c>
       <c r="AL17" s="3">
@@ -2233,7 +2268,7 @@
       </c>
       <c r="AN17" s="3"/>
     </row>
-    <row r="18" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>66</v>
       </c>
@@ -2273,7 +2308,7 @@
         <v>66439.554042000003</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>66</v>
       </c>
@@ -2299,7 +2334,7 @@
       </c>
       <c r="U19" s="11"/>
       <c r="AJ19" s="12"/>
-      <c r="AK19" s="7">
+      <c r="AK19" s="9">
         <v>18855.446892</v>
       </c>
       <c r="AL19" s="7">
@@ -2310,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>66</v>
       </c>
@@ -2363,7 +2398,7 @@
         <v>66447.997588651255</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>66</v>
       </c>
@@ -2397,7 +2432,7 @@
       <c r="AJ21" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AK21" s="7">
+      <c r="AK21" s="9">
         <v>18855.509415</v>
       </c>
       <c r="AL21" s="3">
@@ -2417,6 +2452,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E46722399A7B5D4590DBCFF250182F33" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05807d8e6f97dd573643f350d0638d6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="677f5592-671a-486f-9aac-5097e59069f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fa3647ed1dc35413e65d5d4278d9638" ns3:_="">
     <xsd:import namespace="677f5592-671a-486f-9aac-5097e59069f9"/>
@@ -2586,35 +2636,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F14E613-146B-42BC-87DA-ED927865862D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2636,9 +2661,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F14E613-146B-42BC-87DA-ED927865862D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/surya_punctuation_5_6/surya_results_punctuation.xlsx
+++ b/surya_punctuation_5_6/surya_results_punctuation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s71z662\Documents\IZANAMI\2_macroevolution\surya_punctuation_5_6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s71z662\Documents\Emergency\IZANAMI2\2_macroevolution\surya_punctuation_5_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -857,8 +857,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="97.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -1144,33 +1144,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="35" width="5.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="35" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="40" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -1894,7 +1894,7 @@
       <c r="H12" s="9">
         <v>-7.0527974000000002</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="3">
         <v>0.18793129</v>
       </c>
       <c r="J12" s="9">
@@ -1929,7 +1929,7 @@
       <c r="U12" s="13">
         <v>0.12</v>
       </c>
-      <c r="V12" s="10">
+      <c r="V12" s="13">
         <v>0.88944003000000005</v>
       </c>
       <c r="W12" s="13">
@@ -1962,7 +1962,7 @@
       <c r="AF12" s="13">
         <v>1.2174767799999999</v>
       </c>
-      <c r="AG12" s="10">
+      <c r="AG12" s="13">
         <v>5.59283E-2</v>
       </c>
       <c r="AI12" s="13"/>
@@ -2452,21 +2452,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E46722399A7B5D4590DBCFF250182F33" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05807d8e6f97dd573643f350d0638d6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="677f5592-671a-486f-9aac-5097e59069f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fa3647ed1dc35413e65d5d4278d9638" ns3:_="">
     <xsd:import namespace="677f5592-671a-486f-9aac-5097e59069f9"/>
@@ -2636,10 +2621,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F14E613-146B-42BC-87DA-ED927865862D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2661,19 +2671,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F14E613-146B-42BC-87DA-ED927865862D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/surya_punctuation_5_6/surya_results_punctuation.xlsx
+++ b/surya_punctuation_5_6/surya_results_punctuation.xlsx
@@ -15,7 +15,7 @@
     <sheet name="meta" sheetId="2" r:id="rId1"/>
     <sheet name="results" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1317,7 +1317,7 @@
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="9">
-        <v>9.1440000000000001</v>
+        <v>9.14373153995035</v>
       </c>
       <c r="U2" s="13"/>
       <c r="V2" s="13">
@@ -1356,11 +1356,11 @@
       <c r="M3" s="1"/>
       <c r="O3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="T3" s="7">
-        <v>7.343</v>
+      <c r="T3" s="9">
+        <v>7.3428749544572796</v>
       </c>
       <c r="U3" s="11"/>
-      <c r="V3" s="11">
+      <c r="V3" s="13">
         <v>0.1541537</v>
       </c>
       <c r="W3" s="11"/>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="9">
-        <v>7.5330000000000004</v>
+        <v>7.5332782199999997</v>
       </c>
       <c r="G4" s="9">
-        <v>-0.02</v>
+        <v>-1.9933989999999999E-2</v>
       </c>
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
@@ -1399,16 +1399,16 @@
       <c r="O4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="T4" s="9">
-        <v>9.1199999999999992</v>
+        <v>9.1204455832687596</v>
       </c>
       <c r="U4" s="13">
-        <v>3.0000000000000001E-3</v>
+        <v>2.7614411915808401E-3</v>
       </c>
       <c r="V4" s="13">
-        <v>0.12473578</v>
+        <v>0.124735782</v>
       </c>
       <c r="W4" s="13">
-        <v>5.5593825048564803E-3</v>
+        <v>5.5593830000000002E-3</v>
       </c>
       <c r="AJ4" s="15">
         <v>3.3970045202609301E-4</v>
@@ -1438,22 +1438,22 @@
         <v>1</v>
       </c>
       <c r="F5" s="7">
-        <v>12.054</v>
+        <v>12.05444</v>
       </c>
       <c r="G5" s="7">
-        <v>0</v>
+        <v>-1.8838120000000002E-12</v>
       </c>
       <c r="T5" s="9">
-        <v>7.3440000000000003</v>
+        <v>7.34445644808934</v>
       </c>
       <c r="U5" s="11">
-        <v>-2.669</v>
+        <v>-2.6686458306740399</v>
       </c>
       <c r="V5" s="13">
-        <v>0.15417027999999999</v>
+        <v>0.15417030000000001</v>
       </c>
       <c r="W5" s="11">
-        <v>3.5177777389754598E-8</v>
+        <v>3.5177780000000002E-8</v>
       </c>
       <c r="AJ5" s="12">
         <v>0.99995727463807904</v>

--- a/surya_punctuation_5_6/surya_results_punctuation.xlsx
+++ b/surya_punctuation_5_6/surya_results_punctuation.xlsx
@@ -39,7 +39,7 @@
     <author>tc={FA3F6A17-A51A-4CBD-8C41-34C871AE34C5}</author>
   </authors>
   <commentList>
-    <comment ref="F18" authorId="0" shapeId="0">
+    <comment ref="F19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="1" shapeId="0">
+    <comment ref="F20" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="2" shapeId="0">
+    <comment ref="F21" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F21" authorId="3" shapeId="0">
+    <comment ref="F22" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>log_lik</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>se[0-13]</t>
+  </si>
+  <si>
+    <t>1-group (no outliers)</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1136,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN21"/>
+  <dimension ref="A1:AN22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
@@ -1469,978 +1472,1020 @@
         <v>40.930000000000291</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>11.81481</v>
+      </c>
+      <c r="G6" s="7">
+        <v>-1.8950200000000001E-12</v>
+      </c>
+      <c r="T6" s="9">
+        <v>6.7243682129902798</v>
+      </c>
+      <c r="U6" s="11">
+        <v>-2.6718867381449201</v>
+      </c>
+      <c r="V6" s="13">
+        <v>0.1479713</v>
+      </c>
+      <c r="W6" s="11">
+        <v>3.3659430000000002E-8</v>
+      </c>
+      <c r="AJ6" s="12">
+        <v>0.99995509999999999</v>
+      </c>
+      <c r="AK6" s="9">
+        <v>17753.98</v>
+      </c>
+      <c r="AL6" s="6">
+        <v>-35482.639999999999</v>
+      </c>
+      <c r="AM6" s="7"/>
+    </row>
+    <row r="7" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E7" s="14">
         <v>0</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="9">
         <v>9.4456629999999997</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G7" s="9">
         <v>-7.1936700000000006E-2</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="9">
+      <c r="I7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="9">
         <v>-5.9114960000000005E-10</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9">
+      <c r="S7" s="9"/>
+      <c r="T7" s="9">
         <v>8.3719999999999999</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U7" s="13">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="V6" s="13">
+      <c r="V7" s="13">
         <v>0.15190029999999999</v>
       </c>
-      <c r="W6" s="13">
+      <c r="W7" s="13">
         <v>5.9052059999999996E-3</v>
       </c>
-      <c r="AH6" s="13">
+      <c r="AH7" s="13">
         <v>2.898332E-11</v>
       </c>
-      <c r="AJ6" s="15">
+      <c r="AJ7" s="15">
         <v>1.2592210000000001E-33</v>
       </c>
-      <c r="AK6" s="9">
+      <c r="AK7" s="9">
         <v>-11554.47</v>
       </c>
-      <c r="AL6" s="9">
+      <c r="AL7" s="9">
         <v>23142.71</v>
       </c>
-      <c r="AM6" s="9">
-        <f>AL6-AL3</f>
+      <c r="AM7" s="9">
+        <f>AL7-AL3</f>
         <v>58214</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="3">
         <v>12.05444</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="3">
         <v>-1.8996260000000002E-12</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="R7" s="7">
+      <c r="H8" s="3"/>
+      <c r="R8" s="7">
         <v>-1.964177E-22</v>
       </c>
-      <c r="S7" s="7"/>
-      <c r="T7" s="9">
+      <c r="S8" s="7"/>
+      <c r="T8" s="9">
         <v>7.3460000000000001</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U8" s="16">
         <v>-2.669</v>
       </c>
-      <c r="V7" s="13">
+      <c r="V8" s="13">
         <v>0.15418689999999999</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W8" s="16">
         <v>3.518118E-8</v>
       </c>
-      <c r="AH7" s="13">
+      <c r="AH8" s="13">
         <v>2.6084919999999998E-17</v>
       </c>
-      <c r="AJ7" s="12">
+      <c r="AJ8" s="12">
         <v>0.99995690000000004</v>
       </c>
-      <c r="AK7" s="9">
+      <c r="AK8" s="9">
         <v>17490.689999999999</v>
       </c>
-      <c r="AL7" s="3">
+      <c r="AL8" s="3">
         <v>-34947.61</v>
       </c>
-      <c r="AM7" s="7">
-        <f>AL7-AL3</f>
+      <c r="AM8" s="7">
+        <f>AL8-AL3</f>
         <v>123.68000000000029</v>
       </c>
-      <c r="AN7" s="3"/>
-    </row>
-    <row r="8" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="AN8" s="3"/>
+    </row>
+    <row r="9" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E9" s="14">
         <v>0</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="9">
         <v>10.098179999999999</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G9" s="9">
         <v>-0.1046285</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="9">
+      <c r="I9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="9">
         <v>-9.6248790000000001E-10</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S9" s="9">
         <v>2.331059E-11</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T9" s="9">
         <v>8.2919999999999998</v>
       </c>
-      <c r="U8" s="13">
+      <c r="U9" s="13">
         <v>9.4E-2</v>
       </c>
-      <c r="V8" s="13">
+      <c r="V9" s="13">
         <v>0.17934739999999999</v>
       </c>
-      <c r="W8" s="13">
+      <c r="W9" s="13">
         <v>7.6100509999999996E-3</v>
       </c>
-      <c r="AH8" s="13">
+      <c r="AH9" s="13">
         <v>6.2030549999999999E-11</v>
       </c>
-      <c r="AI8" s="13">
+      <c r="AI9" s="13">
         <v>3.44733E-12</v>
       </c>
-      <c r="AJ8" s="15">
+      <c r="AJ9" s="15">
         <v>3.4448570000000002E-42</v>
       </c>
-      <c r="AK8" s="9">
+      <c r="AK9" s="9">
         <v>-11557.19</v>
       </c>
-      <c r="AL8" s="9">
+      <c r="AL9" s="9">
         <v>23156.59</v>
       </c>
-      <c r="AM8" s="9">
-        <f>AL8-AL3</f>
+      <c r="AM9" s="9">
+        <f>AL9-AL3</f>
         <v>58227.880000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="3">
         <v>12.05444</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="3">
         <v>-1.9432429999999998E-12</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R10" s="7">
         <v>-1.0338239999999999E-21</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S10" s="7">
         <v>3.6832330000000002E-23</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T10" s="9">
         <v>7.3479999999999999</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U10" s="16">
         <v>-2.669</v>
       </c>
-      <c r="V9" s="13">
+      <c r="V10" s="13">
         <v>0.15420349999999999</v>
       </c>
-      <c r="W9" s="16">
+      <c r="W10" s="16">
         <v>3.5419460000000002E-8</v>
       </c>
-      <c r="AH9" s="11">
+      <c r="AH10" s="11">
         <v>8.2359770000000001E-17</v>
       </c>
-      <c r="AI9" s="11">
+      <c r="AI10" s="11">
         <v>3.4359679999999999E-18</v>
       </c>
-      <c r="AJ9" s="12">
+      <c r="AJ10" s="12">
         <v>0.99995619999999996</v>
       </c>
-      <c r="AK9" s="9">
+      <c r="AK10" s="9">
         <v>17451.400000000001</v>
       </c>
-      <c r="AL9" s="3">
+      <c r="AL10" s="3">
         <v>-34860.58</v>
       </c>
-      <c r="AM9" s="7">
-        <f>AL9-AL3</f>
+      <c r="AM10" s="7">
+        <f>AL10-AL3</f>
         <v>210.70999999999913</v>
       </c>
-      <c r="AN9" s="3"/>
-    </row>
-    <row r="10" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="AN10" s="3"/>
+    </row>
+    <row r="11" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E11" s="14">
         <v>0</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <v>10.314819999999999</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G11" s="9">
         <v>-7.7383999999999994E-2</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H11" s="9">
         <v>-3.5592549999999998</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="9">
+      <c r="I11" s="3"/>
+      <c r="J11" s="9">
         <v>-1.4064639999999999</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="9">
-        <v>-0.71697999999999995</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="9">
-        <v>-1.5222640000000001</v>
-      </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="9">
-        <v>-0.36386499999999999</v>
-      </c>
-      <c r="Q10" s="3"/>
-      <c r="T10" s="9">
-        <v>8.2430000000000003</v>
-      </c>
-      <c r="U10" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="V10" s="13">
-        <v>0.29478293100000003</v>
-      </c>
-      <c r="W10" s="13">
-        <v>5.9789459999999997E-3</v>
-      </c>
-      <c r="X10" s="13">
-        <v>0.28278828900000003</v>
-      </c>
-      <c r="Z10" s="13">
-        <v>0.26886333099999998</v>
-      </c>
-      <c r="AB10" s="13">
-        <v>0.272947628</v>
-      </c>
-      <c r="AD10" s="13">
-        <v>0.33484382600000001</v>
-      </c>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13">
-        <v>0.37223751500000002</v>
-      </c>
-      <c r="AJ10" s="15">
-        <v>1.1521590000000001E-37</v>
-      </c>
-      <c r="AK10" s="9">
-        <v>-11496.96</v>
-      </c>
-      <c r="AL10" s="9">
-        <v>23061.47</v>
-      </c>
-      <c r="AM10" s="9">
-        <f>AL10-AL3</f>
-        <v>58132.76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7">
-        <v>12.05444</v>
-      </c>
-      <c r="G11" s="7">
-        <v>-1.9085530000000001E-12</v>
-      </c>
-      <c r="H11" s="9">
-        <v>-2.468867E-12</v>
-      </c>
-      <c r="J11" s="9">
-        <v>-1.7581859999999999E-12</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="9">
-        <v>-1.543247E-12</v>
+        <v>-0.71697999999999995</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="9">
-        <v>-1.5785169999999999E-12</v>
+        <v>-1.5222640000000001</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="9">
-        <v>-6.5612249999999996E-13</v>
-      </c>
+        <v>-0.36386499999999999</v>
+      </c>
+      <c r="Q11" s="3"/>
       <c r="T11" s="9">
-        <v>7.3520000000000003</v>
-      </c>
-      <c r="U11" s="16">
-        <v>-2.669</v>
+        <v>8.2430000000000003</v>
+      </c>
+      <c r="U11" s="13">
+        <v>0.1</v>
       </c>
       <c r="V11" s="13">
-        <v>0.15425340000000001</v>
-      </c>
-      <c r="W11" s="11">
-        <v>3.5212030000000001E-8</v>
+        <v>0.29478293100000003</v>
+      </c>
+      <c r="W11" s="13">
+        <v>5.9789459999999997E-3</v>
       </c>
       <c r="X11" s="13">
-        <v>2.5127180000000002E-7</v>
+        <v>0.28278828900000003</v>
       </c>
       <c r="Z11" s="13">
-        <v>2.3143589999999999E-7</v>
-      </c>
-      <c r="AA11" s="13"/>
+        <v>0.26886333099999998</v>
+      </c>
       <c r="AB11" s="13">
-        <v>2.4024539999999999E-7</v>
-      </c>
-      <c r="AC11" s="13"/>
+        <v>0.272947628</v>
+      </c>
       <c r="AD11" s="13">
-        <v>2.6997389999999999E-7</v>
+        <v>0.33484382600000001</v>
       </c>
       <c r="AE11" s="13"/>
       <c r="AF11" s="13">
+        <v>0.37223751500000002</v>
+      </c>
+      <c r="AJ11" s="15">
+        <v>1.1521590000000001E-37</v>
+      </c>
+      <c r="AK11" s="9">
+        <v>-11496.96</v>
+      </c>
+      <c r="AL11" s="9">
+        <v>23061.47</v>
+      </c>
+      <c r="AM11" s="9">
+        <f>AL11-AL3</f>
+        <v>58132.76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>12.05444</v>
+      </c>
+      <c r="G12" s="7">
+        <v>-1.9085530000000001E-12</v>
+      </c>
+      <c r="H12" s="9">
+        <v>-2.468867E-12</v>
+      </c>
+      <c r="J12" s="9">
+        <v>-1.7581859999999999E-12</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="9">
+        <v>-1.543247E-12</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="9">
+        <v>-1.5785169999999999E-12</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="9">
+        <v>-6.5612249999999996E-13</v>
+      </c>
+      <c r="T12" s="9">
+        <v>7.3520000000000003</v>
+      </c>
+      <c r="U12" s="16">
+        <v>-2.669</v>
+      </c>
+      <c r="V12" s="13">
+        <v>0.15425340000000001</v>
+      </c>
+      <c r="W12" s="11">
+        <v>3.5212030000000001E-8</v>
+      </c>
+      <c r="X12" s="13">
+        <v>2.5127180000000002E-7</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>2.3143589999999999E-7</v>
+      </c>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13">
+        <v>2.4024539999999999E-7</v>
+      </c>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13">
+        <v>2.6997389999999999E-7</v>
+      </c>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13">
         <v>2.8392080000000001E-7</v>
       </c>
-      <c r="AJ11" s="12">
+      <c r="AJ12" s="12">
         <v>0.99995679999999998</v>
       </c>
-      <c r="AK11" s="9">
+      <c r="AK12" s="9">
         <v>17453.93</v>
       </c>
-      <c r="AL11" s="7">
+      <c r="AL12" s="7">
         <v>-34840.33</v>
       </c>
-      <c r="AM11" s="7">
-        <f>AL11-AL3</f>
+      <c r="AM12" s="7">
+        <f>AL12-AL3</f>
         <v>230.95999999999913</v>
       </c>
-      <c r="AN11" s="3"/>
-    </row>
-    <row r="12" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="AN12" s="3"/>
+    </row>
+    <row r="13" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B13" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E13" s="14">
         <v>0</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="9">
         <v>12.52266653</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G13" s="9">
         <v>-0.17372312000000001</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H13" s="9">
         <v>-7.0527974000000002</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I13" s="3">
         <v>0.18793129</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J13" s="9">
         <v>-2.25853196</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K13" s="3">
         <v>3.4825479999999999E-2</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L13" s="9">
         <v>-3.1320450599999998</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M13" s="3">
         <v>0.10479305999999999</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N13" s="9">
         <v>-4.6106573300000004</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O13" s="3">
         <v>0.14325590999999999</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P13" s="9">
         <v>-0.30643763000000002</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q13" s="3">
         <v>-2.3688460000000001E-2</v>
       </c>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="9">
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="9">
         <v>8.0630000000000006</v>
       </c>
-      <c r="U12" s="13">
+      <c r="U13" s="13">
         <v>0.12</v>
       </c>
-      <c r="V12" s="13">
+      <c r="V13" s="13">
         <v>0.88944003000000005</v>
       </c>
-      <c r="W12" s="13">
+      <c r="W13" s="13">
         <v>3.7140289999999999E-2</v>
       </c>
-      <c r="X12" s="13">
+      <c r="X13" s="13">
         <v>0.91185693000000001</v>
       </c>
-      <c r="Y12" s="13">
+      <c r="Y13" s="13">
         <v>3.923658E-2</v>
       </c>
-      <c r="Z12" s="13">
+      <c r="Z13" s="13">
         <v>0.91939926999999999</v>
       </c>
-      <c r="AA12" s="13">
+      <c r="AA13" s="13">
         <v>3.850489E-2</v>
       </c>
-      <c r="AB12" s="13">
+      <c r="AB13" s="13">
         <v>0.92711790000000005</v>
       </c>
-      <c r="AC12" s="13">
+      <c r="AC13" s="13">
         <v>3.8510700000000002E-2</v>
       </c>
-      <c r="AD12" s="13">
+      <c r="AD13" s="13">
         <v>1.01886049</v>
       </c>
-      <c r="AE12" s="13">
+      <c r="AE13" s="13">
         <v>4.4272499999999999E-2</v>
       </c>
-      <c r="AF12" s="13">
+      <c r="AF13" s="13">
         <v>1.2174767799999999</v>
       </c>
-      <c r="AG12" s="13">
+      <c r="AG13" s="13">
         <v>5.59283E-2</v>
       </c>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="15">
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="15">
         <v>2.9868159999999999E-6</v>
       </c>
-      <c r="AK12" s="9">
+      <c r="AK13" s="9">
         <v>-11457.3</v>
       </c>
-      <c r="AL12" s="9">
+      <c r="AL13" s="9">
         <v>23024.33</v>
       </c>
-      <c r="AM12" s="9">
-        <f>AL12-AL3</f>
+      <c r="AM13" s="9">
+        <f>AL13-AL3</f>
         <v>58095.62</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="6">
         <v>1</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="7">
         <v>12.05444</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G14" s="7">
         <v>-2.4095729999999999E-12</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H14" s="9">
         <v>-1.8935220000000001E-11</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I14" s="3">
         <v>6.5548909999999995E-13</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J14" s="9">
         <v>-1.437768E-11</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K14" s="3">
         <v>4.8886359999999996E-13</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L14" s="9">
         <v>-1.40607E-11</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M14" s="3">
         <v>4.8100979999999997E-13</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N14" s="9">
         <v>-1.571998E-11</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O14" s="3">
         <v>5.5010599999999998E-13</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P14" s="9">
         <v>-9.5452489999999994E-12</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q14" s="3">
         <v>3.1909749999999999E-13</v>
       </c>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9">
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9">
         <v>7.36</v>
       </c>
-      <c r="U13" s="11">
+      <c r="U14" s="11">
         <v>-2.669</v>
       </c>
-      <c r="V13" s="13">
+      <c r="V14" s="13">
         <v>0.15433659999999999</v>
       </c>
-      <c r="W13" s="11">
+      <c r="W14" s="11">
         <v>5.6402760000000002E-8</v>
       </c>
-      <c r="X13" s="13">
+      <c r="X14" s="13">
         <v>1.2232410000000001E-6</v>
       </c>
-      <c r="Y13" s="13">
+      <c r="Y14" s="13">
         <v>4.6699570000000003E-8</v>
       </c>
-      <c r="Z13" s="13">
+      <c r="Z14" s="13">
         <v>1.1921369999999999E-6</v>
       </c>
-      <c r="AA13" s="13">
+      <c r="AA14" s="13">
         <v>4.5012440000000001E-8</v>
       </c>
-      <c r="AB13" s="13">
+      <c r="AB14" s="13">
         <v>1.211324E-6</v>
       </c>
-      <c r="AC13" s="13">
+      <c r="AC14" s="13">
         <v>4.5488249999999997E-8</v>
       </c>
-      <c r="AD13" s="13">
+      <c r="AD14" s="13">
         <v>1.272067E-6</v>
       </c>
-      <c r="AE13" s="13">
+      <c r="AE14" s="13">
         <v>4.927333E-8</v>
       </c>
-      <c r="AF13" s="13">
+      <c r="AF14" s="13">
         <v>1.3367630000000001E-6</v>
       </c>
-      <c r="AG13" s="13">
+      <c r="AG14" s="13">
         <v>5.2737300000000001E-8</v>
       </c>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="12">
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="12">
         <v>0.99996589999999996</v>
       </c>
-      <c r="AK13" s="9">
+      <c r="AK14" s="9">
         <v>17370.57</v>
       </c>
-      <c r="AL13" s="3">
+      <c r="AL14" s="3">
         <v>-34631.410000000003</v>
       </c>
-      <c r="AM13" s="7">
-        <f>AL13-AL3</f>
+      <c r="AM14" s="7">
+        <f>AL14-AL3</f>
         <v>439.87999999999738</v>
       </c>
-      <c r="AN13" s="3"/>
-    </row>
-    <row r="14" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="AN14" s="3"/>
+    </row>
+    <row r="15" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E15" s="14">
         <v>0</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <v>717.68349999999998</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="9">
-        <v>148904.288</v>
-      </c>
-      <c r="U14" s="13"/>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="10">
-        <v>-34192.25</v>
-      </c>
-      <c r="AL14" s="9">
-        <v>68401.39</v>
-      </c>
-      <c r="AM14" s="9">
-        <f>AL14-AL17</f>
-        <v>45669.119999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7">
-        <v>2149.7310000000002</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="7"/>
+      <c r="I15" s="1"/>
       <c r="K15" s="1"/>
       <c r="M15" s="1"/>
       <c r="O15" s="1"/>
       <c r="Q15" s="1"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
       <c r="T15" s="9">
-        <v>1083975.1100000001</v>
-      </c>
-      <c r="U15" s="11"/>
-      <c r="AJ15" s="12"/>
+        <v>148904.288</v>
+      </c>
+      <c r="U15" s="13"/>
+      <c r="AJ15" s="15"/>
       <c r="AK15" s="10">
-        <v>-11961.46</v>
-      </c>
-      <c r="AL15" s="7">
-        <v>23939.81</v>
-      </c>
-      <c r="AM15" s="7">
-        <f>AL15-AL17</f>
-        <v>1207.5400000000009</v>
-      </c>
-      <c r="AN15" s="7"/>
-    </row>
-    <row r="16" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+        <v>-34192.25</v>
+      </c>
+      <c r="AL15" s="9">
+        <v>68401.39</v>
+      </c>
+      <c r="AM15" s="9">
+        <f>AL15-AL18</f>
+        <v>45669.119999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="14">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>142.00948</v>
-      </c>
-      <c r="G16" s="9">
-        <v>27.459579999999999</v>
-      </c>
-      <c r="I16" s="1"/>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2149.7310000000002</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="1"/>
       <c r="M16" s="1"/>
       <c r="O16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
       <c r="T16" s="9">
+        <v>1083975.1100000001</v>
+      </c>
+      <c r="U16" s="11"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="10">
+        <v>-11961.46</v>
+      </c>
+      <c r="AL16" s="7">
+        <v>23939.81</v>
+      </c>
+      <c r="AM16" s="7">
+        <f>AL16-AL18</f>
+        <v>1207.5400000000009</v>
+      </c>
+      <c r="AN16" s="7"/>
+    </row>
+    <row r="17" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>142.00948</v>
+      </c>
+      <c r="G17" s="9">
+        <v>27.459579999999999</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="9">
         <v>100969.285</v>
       </c>
-      <c r="U16" s="13">
+      <c r="U17" s="13">
         <v>0.32200000000000001</v>
       </c>
-      <c r="V16" s="13">
+      <c r="V17" s="13">
         <v>13.125512000000001</v>
       </c>
-      <c r="W16" s="13">
+      <c r="W17" s="13">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="AJ16" s="15">
+      <c r="AJ17" s="15">
         <v>0</v>
       </c>
-      <c r="AK16" s="10">
+      <c r="AK17" s="10">
         <v>-33290.86</v>
       </c>
-      <c r="AL16" s="9">
+      <c r="AL17" s="9">
         <v>66607.039999999994</v>
       </c>
-      <c r="AM16" s="9">
-        <f>AL16-AL17</f>
+      <c r="AM17" s="9">
+        <f>AL17-AL18</f>
         <v>43874.76999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="6">
         <v>1</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F18" s="7">
         <v>1796.6313</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G18" s="7">
         <v>-5.9999999999999995E-4</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T18" s="9">
         <v>830432.78500000003</v>
       </c>
-      <c r="U17" s="11">
+      <c r="U18" s="11">
         <v>-7.819</v>
       </c>
-      <c r="V17" s="13">
+      <c r="V18" s="13">
         <v>0.58518300000000001</v>
       </c>
-      <c r="W17" s="11">
+      <c r="W18" s="11">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="AJ17" s="12">
+      <c r="AJ18" s="12">
         <v>9.9469393622001894E-271</v>
       </c>
-      <c r="AK17" s="10">
+      <c r="AK18" s="10">
         <v>-11353.47</v>
       </c>
-      <c r="AL17" s="3">
+      <c r="AL18" s="3">
         <v>22732.27</v>
       </c>
-      <c r="AM17" s="7">
+      <c r="AM18" s="7">
         <v>0</v>
       </c>
-      <c r="AN17" s="3"/>
-    </row>
-    <row r="18" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="AN18" s="3"/>
+    </row>
+    <row r="19" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B19" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E19" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F19" s="9">
         <v>4.78E-10</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="9">
-        <v>7.1075657157640002</v>
-      </c>
-      <c r="U18" s="13"/>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="9">
-        <v>-14364.330129</v>
-      </c>
-      <c r="AL18" s="9">
-        <f>(LN(4645)*2)-(2*AK18)</f>
-        <v>28745.547351302495</v>
-      </c>
-      <c r="AM18" s="9">
-        <f>AL18-AL19</f>
-        <v>66439.554042000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7">
-        <v>7.7000000000000006E-11</v>
       </c>
       <c r="I19" s="1"/>
       <c r="K19" s="1"/>
       <c r="M19" s="1"/>
       <c r="O19" s="1"/>
       <c r="Q19" s="1"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
       <c r="T19" s="9">
-        <v>1.0442015764699999</v>
-      </c>
-      <c r="U19" s="11"/>
-      <c r="AJ19" s="12"/>
+        <v>7.1075657157640002</v>
+      </c>
+      <c r="U19" s="13"/>
+      <c r="AJ19" s="15"/>
       <c r="AK19" s="9">
-        <v>18855.446892</v>
-      </c>
-      <c r="AL19" s="7">
+        <v>-14364.330129</v>
+      </c>
+      <c r="AL19" s="9">
         <f>(LN(4645)*2)-(2*AK19)</f>
-        <v>-37694.006690697504</v>
-      </c>
-      <c r="AM19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+        <v>28745.547351302495</v>
+      </c>
+      <c r="AM19" s="9">
+        <f>AL19-AL20</f>
+        <v>66439.554042000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="9">
-        <v>-8.2099999999999996E-10</v>
-      </c>
-      <c r="G20" s="9">
-        <v>8.3999999999999994E-11</v>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7">
+        <v>7.7000000000000006E-11</v>
       </c>
       <c r="I20" s="1"/>
       <c r="K20" s="1"/>
       <c r="M20" s="1"/>
       <c r="O20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
       <c r="T20" s="9">
+        <v>1.0442015764699999</v>
+      </c>
+      <c r="U20" s="11"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="9">
+        <v>18855.446892</v>
+      </c>
+      <c r="AL20" s="7">
+        <f>(LN(4645)*2)-(2*AK20)</f>
+        <v>-37694.006690697504</v>
+      </c>
+      <c r="AM20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="9">
+        <v>-8.2099999999999996E-10</v>
+      </c>
+      <c r="G21" s="9">
+        <v>8.3999999999999994E-11</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="9">
         <v>7.1060355612209998</v>
       </c>
-      <c r="U20" s="13">
+      <c r="U21" s="13">
         <v>6.4999999999999995E-11</v>
       </c>
-      <c r="V20" s="13">
+      <c r="V21" s="13">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="W20" s="13">
+      <c r="W21" s="13">
         <v>0</v>
       </c>
-      <c r="AJ20" s="15" t="s">
+      <c r="AJ21" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AK20" s="9">
+      <c r="AK21" s="9">
         <v>-14364.330129</v>
       </c>
-      <c r="AL20" s="9">
-        <f>(LN(4645)*3)-(2*AK20)</f>
+      <c r="AL21" s="9">
+        <f>(LN(4645)*3)-(2*AK21)</f>
         <v>28753.990897953743</v>
       </c>
-      <c r="AM20" s="9">
-        <f>AL20-AL19</f>
+      <c r="AM21" s="9">
+        <f>AL21-AL20</f>
         <v>66447.997588651255</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="6">
         <v>1</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F22" s="3">
         <v>1.04E-10</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G22" s="3">
         <v>-3.0000000000000001E-12</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T22" s="9">
         <v>1.044091000396</v>
       </c>
-      <c r="U21" s="16">
+      <c r="U22" s="16">
         <v>2E-12</v>
       </c>
-      <c r="V21" s="13">
+      <c r="V22" s="13">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="W21" s="11">
+      <c r="W22" s="11">
         <v>0</v>
       </c>
-      <c r="AJ21" s="12" t="s">
+      <c r="AJ22" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AK21" s="9">
+      <c r="AK22" s="9">
         <v>18855.509415</v>
       </c>
-      <c r="AL21" s="3">
-        <f>(LN(3958)*3)-(2*AK21)</f>
+      <c r="AL22" s="3">
+        <f>(LN(3958)*3)-(2*AK22)</f>
         <v>-37686.168347621511</v>
       </c>
-      <c r="AM21" s="7">
-        <f>AL21-AL19</f>
+      <c r="AM22" s="7">
+        <f>AL22-AL20</f>
         <v>7.8383430759931798</v>
       </c>
     </row>

--- a/surya_punctuation_5_6/surya_results_punctuation.xlsx
+++ b/surya_punctuation_5_6/surya_results_punctuation.xlsx
@@ -2497,6 +2497,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E46722399A7B5D4590DBCFF250182F33" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05807d8e6f97dd573643f350d0638d6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="677f5592-671a-486f-9aac-5097e59069f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fa3647ed1dc35413e65d5d4278d9638" ns3:_="">
     <xsd:import namespace="677f5592-671a-486f-9aac-5097e59069f9"/>
@@ -2666,35 +2681,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F14E613-146B-42BC-87DA-ED927865862D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2716,9 +2706,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F14E613-146B-42BC-87DA-ED927865862D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/surya_punctuation_5_6/surya_results_punctuation.xlsx
+++ b/surya_punctuation_5_6/surya_results_punctuation.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s71z662\Documents\Emergency\IZANAMI2\2_macroevolution\surya_punctuation_5_6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Surya\Google Drive\Operation\IZANAMI\2_macroevolution\surya_punctuation_5_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF468F1C-AB5D-47D5-896B-2312145D3D74}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
     <sheet name="results" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={595A8741-3CB8-4DC6-86A0-2ECD1F9D334B}</author>
     <author>tc={4992A8AF-FFDD-4965-952F-230D2384B795}</author>
@@ -39,72 +40,36 @@
     <author>tc={FA3F6A17-A51A-4CBD-8C41-34C871AE34C5}</author>
   </authors>
   <commentList>
-    <comment ref="F19" authorId="0" shapeId="0">
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This intercept value is nonsensical.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="1" shapeId="0">
+    <comment ref="F20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This intercept value is nonsensical.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="F21" authorId="2" shapeId="0">
+    <comment ref="F21" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This intercept value is nonsensical.</t>
-        </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="3" shapeId="0">
+    <comment ref="F22" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This intercept value is nonsensical.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -411,7 +376,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -837,35 +802,35 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F18" dT="2020-05-07T02:06:54.41" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{595A8741-3CB8-4DC6-86A0-2ECD1F9D334B}">
+  <threadedComment ref="F19" dT="2020-05-07T02:06:54.41" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{595A8741-3CB8-4DC6-86A0-2ECD1F9D334B}">
     <text>This intercept value is nonsensical.</text>
   </threadedComment>
-  <threadedComment ref="F19" dT="2020-05-07T02:09:40.21" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{4992A8AF-FFDD-4965-952F-230D2384B795}">
+  <threadedComment ref="F20" dT="2020-05-07T02:09:40.21" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{4992A8AF-FFDD-4965-952F-230D2384B795}">
     <text>This intercept value is nonsensical.</text>
   </threadedComment>
-  <threadedComment ref="F20" dT="2020-05-09T21:30:58.39" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{BC9D21DD-94F7-4123-B96E-4C0E22AAC288}">
+  <threadedComment ref="F21" dT="2020-05-09T21:30:58.39" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{BC9D21DD-94F7-4123-B96E-4C0E22AAC288}">
     <text>This intercept value is nonsensical.</text>
   </threadedComment>
-  <threadedComment ref="F21" dT="2020-05-09T21:31:06.64" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{FA3F6A17-A51A-4CBD-8C41-34C871AE34C5}">
+  <threadedComment ref="F22" dT="2020-05-09T21:31:06.64" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{FA3F6A17-A51A-4CBD-8C41-34C871AE34C5}">
     <text>This intercept value is nonsensical.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.40625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -873,7 +838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -881,7 +846,7 @@
         <v>43957</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -889,7 +854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -897,7 +862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -905,12 +870,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -918,32 +883,32 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B11" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B12" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B13" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
       <c r="B14" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -951,7 +916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A16" s="2" t="s">
         <v>68</v>
       </c>
@@ -959,7 +924,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -967,7 +932,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -975,7 +940,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
@@ -983,7 +948,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
@@ -991,7 +956,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
@@ -999,7 +964,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -1007,7 +972,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
@@ -1015,7 +980,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A24" s="2" t="s">
         <v>37</v>
       </c>
@@ -1023,7 +988,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
@@ -1031,7 +996,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A26" s="2" t="s">
         <v>39</v>
       </c>
@@ -1039,7 +1004,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
@@ -1047,7 +1012,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
@@ -1055,7 +1020,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
@@ -1063,7 +1028,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
@@ -1071,7 +1036,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
@@ -1079,7 +1044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -1087,7 +1052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A33" s="2" t="s">
         <v>90</v>
       </c>
@@ -1095,7 +1060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
@@ -1103,7 +1068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
@@ -1119,7 +1084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -1135,7 +1100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1145,39 +1110,39 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="35" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="10.04296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.40625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.76953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.76953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="35" width="5.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A1" s="5" t="s">
         <v>65</v>
       </c>
@@ -1296,7 +1261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A2" s="10" t="s">
         <v>67</v>
       </c>
@@ -1338,7 +1303,7 @@
         <v>58553.21</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A3" s="6" t="s">
         <v>67</v>
       </c>
@@ -1377,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A4" s="10" t="s">
         <v>67</v>
       </c>
@@ -1427,7 +1392,7 @@
         <v>58557.36</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
         <v>67</v>
       </c>
@@ -1472,7 +1437,7 @@
         <v>40.930000000000291</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
         <v>67</v>
       </c>
@@ -1514,7 +1479,7 @@
       </c>
       <c r="AM6" s="7"/>
     </row>
-    <row r="7" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A7" s="10" t="s">
         <v>67</v>
       </c>
@@ -1571,7 +1536,7 @@
         <v>58214</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A8" s="6" t="s">
         <v>67</v>
       </c>
@@ -1625,7 +1590,7 @@
       </c>
       <c r="AN8" s="3"/>
     </row>
-    <row r="9" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A9" s="10" t="s">
         <v>67</v>
       </c>
@@ -1687,7 +1652,7 @@
         <v>58227.880000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A10" s="6" t="s">
         <v>67</v>
       </c>
@@ -1745,7 +1710,7 @@
       </c>
       <c r="AN10" s="3"/>
     </row>
-    <row r="11" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A11" s="10" t="s">
         <v>67</v>
       </c>
@@ -1829,7 +1794,7 @@
         <v>58132.76</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A12" s="6" t="s">
         <v>67</v>
       </c>
@@ -1914,7 +1879,7 @@
       </c>
       <c r="AN12" s="3"/>
     </row>
-    <row r="13" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A13" s="10" t="s">
         <v>67</v>
       </c>
@@ -2025,7 +1990,7 @@
         <v>58095.62</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A14" s="6" t="s">
         <v>67</v>
       </c>
@@ -2138,7 +2103,7 @@
       </c>
       <c r="AN14" s="3"/>
     </row>
-    <row r="15" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A15" s="10" t="s">
         <v>67</v>
       </c>
@@ -2177,7 +2142,7 @@
         <v>45669.119999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A16" s="6" t="s">
         <v>67</v>
       </c>
@@ -2216,7 +2181,7 @@
       </c>
       <c r="AN16" s="7"/>
     </row>
-    <row r="17" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A17" s="10" t="s">
         <v>67</v>
       </c>
@@ -2268,7 +2233,7 @@
         <v>43874.76999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A18" s="6" t="s">
         <v>67</v>
       </c>
@@ -2313,7 +2278,7 @@
       </c>
       <c r="AN18" s="3"/>
     </row>
-    <row r="19" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2353,7 +2318,7 @@
         <v>66439.554042000003</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A20" s="6" t="s">
         <v>66</v>
       </c>
@@ -2390,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A21" s="10" t="s">
         <v>66</v>
       </c>
@@ -2443,7 +2408,7 @@
         <v>66447.997588651255</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.6">
       <c r="A22" s="6" t="s">
         <v>66</v>
       </c>
@@ -2506,12 +2471,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E46722399A7B5D4590DBCFF250182F33" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05807d8e6f97dd573643f350d0638d6f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="677f5592-671a-486f-9aac-5097e59069f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6fa3647ed1dc35413e65d5d4278d9638" ns3:_="">
     <xsd:import namespace="677f5592-671a-486f-9aac-5097e59069f9"/>
@@ -2681,6 +2640,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
   <ds:schemaRefs>
@@ -2690,22 +2655,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F14E613-146B-42BC-87DA-ED927865862D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2721,4 +2670,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/surya_punctuation_5_6/surya_results_punctuation.xlsx
+++ b/surya_punctuation_5_6/surya_results_punctuation.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin Surya\Google Drive\Operation\IZANAMI\2_macroevolution\surya_punctuation_5_6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2_evolution\surya_punctuation_5_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF468F1C-AB5D-47D5-896B-2312145D3D74}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
     <sheet name="results" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,60 +23,17 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={595A8741-3CB8-4DC6-86A0-2ECD1F9D334B}</author>
-    <author>tc={4992A8AF-FFDD-4965-952F-230D2384B795}</author>
-    <author>tc={BC9D21DD-94F7-4123-B96E-4C0E22AAC288}</author>
-    <author>tc={FA3F6A17-A51A-4CBD-8C41-34C871AE34C5}</author>
-  </authors>
-  <commentList>
-    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This intercept value is nonsensical.</t>
-      </text>
-    </comment>
-    <comment ref="F20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This intercept value is nonsensical.</t>
-      </text>
-    </comment>
-    <comment ref="F21" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This intercept value is nonsensical.</t>
-      </text>
-    </comment>
-    <comment ref="F22" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This intercept value is nonsensical.</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="93">
   <si>
     <t>log_lik</t>
   </si>
@@ -175,9 +131,6 @@
     <t>molecular</t>
   </si>
   <si>
-    <t>rate</t>
-  </si>
-  <si>
     <t>Africa</t>
   </si>
   <si>
@@ -371,12 +324,18 @@
   </si>
   <si>
     <t>1-group (no outliers)</t>
+  </si>
+  <si>
+    <t>est = 1</t>
+  </si>
+  <si>
+    <t>intercept (max. iter. = 100)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -501,7 +460,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Surya, Kevin" id="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" userId="Surya, Kevin" providerId="None"/>
+  <person displayName=" " id="{5AFBE2D6-D38F-4EF4-88D4-C597FEA8D213}" userId="df02b3ce33198787" providerId="Windows Live"/>
 </personList>
 </file>
 
@@ -802,35 +761,26 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F19" dT="2020-05-07T02:06:54.41" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{595A8741-3CB8-4DC6-86A0-2ECD1F9D334B}">
-    <text>This intercept value is nonsensical.</text>
-  </threadedComment>
-  <threadedComment ref="F20" dT="2020-05-07T02:09:40.21" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{4992A8AF-FFDD-4965-952F-230D2384B795}">
-    <text>This intercept value is nonsensical.</text>
-  </threadedComment>
-  <threadedComment ref="F21" dT="2020-05-09T21:30:58.39" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{BC9D21DD-94F7-4123-B96E-4C0E22AAC288}">
-    <text>This intercept value is nonsensical.</text>
-  </threadedComment>
-  <threadedComment ref="F22" dT="2020-05-09T21:31:06.64" personId="{A4AD773A-94BB-479A-B1B7-F1633C8B31ED}" id="{FA3F6A17-A51A-4CBD-8C41-34C871AE34C5}">
-    <text>This intercept value is nonsensical.</text>
+  <threadedComment ref="F5" dT="2020-07-20T19:12:58.78" personId="{5AFBE2D6-D38F-4EF4-88D4-C597FEA8D213}" id="{3257063A-8998-471B-BE54-D5F0F5F1E7C4}">
+    <text>This intercept value is nonsensical!</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="97.40625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -838,7 +788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -846,7 +796,7 @@
         <v>43957</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -854,7 +804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -862,181 +812,181 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="B13" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="B14" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
@@ -1044,7 +994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -1052,15 +1002,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
@@ -1068,7 +1018,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
@@ -1076,7 +1026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
@@ -1084,7 +1034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>19</v>
       </c>
@@ -1100,8 +1050,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AN22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
@@ -1110,41 +1060,41 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.04296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.40625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.76953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.76953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.76953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="35" width="5.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="35" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>10</v>
@@ -1153,52 +1103,52 @@
         <v>24</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="R1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="T1" s="8" t="s">
         <v>1</v>
@@ -1207,46 +1157,46 @@
         <v>14</v>
       </c>
       <c r="V1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AG1" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="AH1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI1" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>20</v>
@@ -1261,12 +1211,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>25</v>
@@ -1285,119 +1235,105 @@
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="9">
-        <v>9.14373153995035</v>
+        <v>9.1417630293927807</v>
       </c>
       <c r="U2" s="13"/>
       <c r="V2" s="13">
         <v>4.4367900000000002E-2</v>
       </c>
       <c r="W2" s="13"/>
-      <c r="AK2" s="10">
-        <v>-11732.52</v>
+      <c r="AK2" s="9">
+        <v>-11730.32</v>
       </c>
       <c r="AL2" s="10">
-        <v>23481.919999999998</v>
-      </c>
-      <c r="AM2" s="9">
-        <f>AL2-AL3</f>
-        <v>58553.21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="6" t="s">
+        <v>23477.53</v>
+      </c>
+      <c r="AM2" s="9"/>
+    </row>
+    <row r="3" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7">
-        <v>12.05444</v>
+      <c r="E3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="9">
+        <v>7.6332970000000005E-11</v>
       </c>
       <c r="I3" s="1"/>
       <c r="K3" s="1"/>
       <c r="M3" s="1"/>
       <c r="O3" s="1"/>
       <c r="Q3" s="1"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
       <c r="T3" s="9">
-        <v>7.3428749544572796</v>
-      </c>
-      <c r="U3" s="11"/>
+        <v>1.04437483665961</v>
+      </c>
+      <c r="U3" s="13"/>
       <c r="V3" s="13">
-        <v>0.1541537</v>
-      </c>
-      <c r="W3" s="11"/>
+        <v>1.685241E-6</v>
+      </c>
+      <c r="W3" s="13"/>
       <c r="AK3" s="9">
-        <v>17544.09</v>
-      </c>
-      <c r="AL3" s="6">
-        <v>-35071.29</v>
-      </c>
-      <c r="AM3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+        <v>18970.18</v>
+      </c>
+      <c r="AL3" s="9">
+        <v>-37915.03</v>
+      </c>
+      <c r="AM3" s="9"/>
+    </row>
+    <row r="4" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="9">
-        <v>7.5332782199999997</v>
-      </c>
-      <c r="G4" s="9">
-        <v>-1.9933989999999999E-2</v>
+        <v>7.6332970000000005E-11</v>
       </c>
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
       <c r="M4" s="1"/>
       <c r="O4" s="1"/>
       <c r="Q4" s="1"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
       <c r="T4" s="9">
-        <v>9.1204455832687596</v>
-      </c>
-      <c r="U4" s="13">
-        <v>2.7614411915808401E-3</v>
-      </c>
+        <v>1.0443748366594501</v>
+      </c>
+      <c r="U4" s="13"/>
       <c r="V4" s="13">
-        <v>0.124735782</v>
-      </c>
-      <c r="W4" s="13">
-        <v>5.5593830000000002E-3</v>
-      </c>
-      <c r="AJ4" s="15">
-        <v>3.3970045202609301E-4</v>
-      </c>
-      <c r="AK4" s="10">
-        <v>-11730.37</v>
-      </c>
-      <c r="AL4" s="10">
-        <v>23486.07</v>
-      </c>
-      <c r="AM4" s="9">
-        <f>AL4-AL3</f>
-        <v>58557.36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.6">
+        <v>1.685241E-6</v>
+      </c>
+      <c r="W4" s="13"/>
+      <c r="AK4" s="9">
+        <v>18855.07</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>-37693.25</v>
+      </c>
+      <c r="AM4" s="9"/>
+    </row>
+    <row r="5" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>25</v>
@@ -1406,142 +1342,129 @@
         <v>1</v>
       </c>
       <c r="F5" s="7">
-        <v>12.05444</v>
-      </c>
-      <c r="G5" s="7">
-        <v>-1.8838120000000002E-12</v>
-      </c>
+        <v>7.6332970000000005E-11</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="Q5" s="1"/>
       <c r="T5" s="9">
-        <v>7.34445644808934</v>
-      </c>
-      <c r="U5" s="11">
-        <v>-2.6686458306740399</v>
-      </c>
+        <v>1.0443748366594501</v>
+      </c>
+      <c r="U5" s="11"/>
       <c r="V5" s="13">
-        <v>0.15417030000000001</v>
-      </c>
-      <c r="W5" s="11">
-        <v>3.5177780000000002E-8</v>
-      </c>
-      <c r="AJ5" s="12">
-        <v>0.99995727463807904</v>
-      </c>
+        <v>1.685241E-6</v>
+      </c>
+      <c r="W5" s="11"/>
       <c r="AK5" s="9">
-        <v>17527.84</v>
-      </c>
-      <c r="AL5" s="6">
-        <v>-35030.36</v>
+        <v>18855.07</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>-37693.25</v>
       </c>
       <c r="AM5" s="7">
-        <f>AL5-AL3</f>
-        <v>40.930000000000291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.6">
-      <c r="A6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>7.5332782199999997</v>
+      </c>
+      <c r="G6" s="9">
+        <v>-1.9933989999999999E-2</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="T6" s="9">
+        <v>9.1165185883997708</v>
+      </c>
+      <c r="U6" s="13">
+        <v>2.7614411915866102E-3</v>
+      </c>
+      <c r="V6" s="13">
+        <v>0.124735782</v>
+      </c>
+      <c r="W6" s="13">
+        <v>5.5593830000000002E-3</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>3.3970050000000003E-4</v>
+      </c>
+      <c r="AK6" s="9">
+        <v>-11723.9</v>
+      </c>
+      <c r="AL6" s="10">
+        <v>23473.13</v>
+      </c>
+      <c r="AM6" s="9"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="7">
-        <v>11.81481</v>
-      </c>
-      <c r="G6" s="7">
-        <v>-1.8950200000000001E-12</v>
-      </c>
-      <c r="T6" s="9">
-        <v>6.7243682129902798</v>
-      </c>
-      <c r="U6" s="11">
-        <v>-2.6718867381449201</v>
-      </c>
-      <c r="V6" s="13">
-        <v>0.1479713</v>
-      </c>
-      <c r="W6" s="11">
-        <v>3.3659430000000002E-8</v>
-      </c>
-      <c r="AJ6" s="12">
-        <v>0.99995509999999999</v>
-      </c>
-      <c r="AK6" s="9">
-        <v>17753.98</v>
-      </c>
-      <c r="AL6" s="6">
-        <v>-35482.639999999999</v>
-      </c>
-      <c r="AM6" s="7"/>
-    </row>
-    <row r="7" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <v>9.4456629999999997</v>
-      </c>
-      <c r="G7" s="9">
-        <v>-7.1936700000000006E-2</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="9">
-        <v>-5.9114960000000005E-10</v>
-      </c>
-      <c r="S7" s="9"/>
+      <c r="F7" s="7">
+        <v>1.040752E-10</v>
+      </c>
+      <c r="G7" s="7">
+        <v>-3.4619470000000001E-12</v>
+      </c>
       <c r="T7" s="9">
-        <v>8.3719999999999999</v>
-      </c>
-      <c r="U7" s="13">
-        <v>8.5000000000000006E-2</v>
+        <v>1.0443748366568799</v>
+      </c>
+      <c r="U7" s="11">
+        <v>-1.72167663863965E-4</v>
       </c>
       <c r="V7" s="13">
-        <v>0.15190029999999999</v>
-      </c>
-      <c r="W7" s="13">
-        <v>5.9052059999999996E-3</v>
-      </c>
-      <c r="AH7" s="13">
-        <v>2.898332E-11</v>
-      </c>
-      <c r="AJ7" s="15">
-        <v>1.2592210000000001E-33</v>
+        <v>1.705246E-6</v>
+      </c>
+      <c r="W7" s="11">
+        <v>3.2352410000000002E-8</v>
+      </c>
+      <c r="AJ7" s="12">
+        <v>0.99991459999999999</v>
       </c>
       <c r="AK7" s="9">
-        <v>-11554.47</v>
-      </c>
-      <c r="AL7" s="9">
-        <v>23142.71</v>
-      </c>
-      <c r="AM7" s="9">
-        <f>AL7-AL3</f>
-        <v>58214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.6">
+        <v>18855.07</v>
+      </c>
+      <c r="AL7" s="7">
+        <v>-37684.81</v>
+      </c>
+      <c r="AM7" s="7">
+        <f>AL7-AL5</f>
+        <v>8.4400000000023283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>25</v>
@@ -1549,53 +1472,41 @@
       <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
-        <v>12.05444</v>
-      </c>
-      <c r="G8" s="3">
-        <v>-1.8996260000000002E-12</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="R8" s="7">
-        <v>-1.964177E-22</v>
-      </c>
-      <c r="S8" s="7"/>
+      <c r="F8" s="7">
+        <v>1.039552E-10</v>
+      </c>
+      <c r="G8" s="7">
+        <v>-3.4469670000000001E-12</v>
+      </c>
       <c r="T8" s="9">
-        <v>7.3460000000000001</v>
-      </c>
-      <c r="U8" s="16">
-        <v>-2.669</v>
+        <v>1.0203555627490399</v>
+      </c>
+      <c r="U8" s="11">
+        <v>-2.24904751277899E-4</v>
       </c>
       <c r="V8" s="13">
-        <v>0.15418689999999999</v>
-      </c>
-      <c r="W8" s="16">
-        <v>3.518118E-8</v>
-      </c>
-      <c r="AH8" s="13">
-        <v>2.6084919999999998E-17</v>
+        <v>1.685523E-6</v>
+      </c>
+      <c r="W8" s="11">
+        <v>3.197803E-8</v>
       </c>
       <c r="AJ8" s="12">
-        <v>0.99995690000000004</v>
+        <v>0.99991399999999997</v>
       </c>
       <c r="AK8" s="9">
-        <v>17490.689999999999</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>-34947.61</v>
-      </c>
-      <c r="AM8" s="7">
-        <f>AL8-AL3</f>
-        <v>123.68000000000029</v>
-      </c>
-      <c r="AN8" s="3"/>
-    </row>
-    <row r="9" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+        <v>18937.77</v>
+      </c>
+      <c r="AL8" s="7">
+        <v>-37850.22</v>
+      </c>
+      <c r="AM8" s="7"/>
+    </row>
+    <row r="9" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>25</v>
@@ -1604,10 +1515,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="9">
-        <v>10.098179999999999</v>
+        <v>9.4456629999999997</v>
       </c>
       <c r="G9" s="9">
-        <v>-0.1046285</v>
+        <v>-7.1936700000000006E-2</v>
       </c>
       <c r="I9" s="1"/>
       <c r="K9" s="1"/>
@@ -1615,49 +1526,41 @@
       <c r="O9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="9">
-        <v>-9.6248790000000001E-10</v>
-      </c>
-      <c r="S9" s="9">
-        <v>2.331059E-11</v>
-      </c>
+        <v>-5.9114960000000005E-10</v>
+      </c>
+      <c r="S9" s="9"/>
       <c r="T9" s="9">
-        <v>8.2919999999999998</v>
+        <v>8.3667137778107392</v>
       </c>
       <c r="U9" s="13">
-        <v>9.4E-2</v>
+        <v>8.47811575393147E-2</v>
       </c>
       <c r="V9" s="13">
-        <v>0.17934739999999999</v>
+        <v>0.15190029999999999</v>
       </c>
       <c r="W9" s="13">
-        <v>7.6100509999999996E-3</v>
+        <v>5.9052059999999996E-3</v>
       </c>
       <c r="AH9" s="13">
-        <v>6.2030549999999999E-11</v>
-      </c>
-      <c r="AI9" s="13">
-        <v>3.44733E-12</v>
+        <v>2.898332E-11</v>
       </c>
       <c r="AJ9" s="15">
-        <v>3.4448570000000002E-42</v>
+        <v>1.2592210000000001E-33</v>
       </c>
       <c r="AK9" s="9">
-        <v>-11557.19</v>
+        <v>-11524.57</v>
       </c>
       <c r="AL9" s="9">
-        <v>23156.59</v>
-      </c>
-      <c r="AM9" s="9">
-        <f>AL9-AL3</f>
-        <v>58227.880000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.6">
+        <v>23082.91</v>
+      </c>
+      <c r="AM9" s="9"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>25</v>
@@ -1666,222 +1569,166 @@
         <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>12.05444</v>
+        <v>1.0443319999999999E-10</v>
       </c>
       <c r="G10" s="3">
-        <v>-1.9432429999999998E-12</v>
-      </c>
+        <v>-3.4643689999999999E-12</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="R10" s="7">
-        <v>-1.0338239999999999E-21</v>
-      </c>
-      <c r="S10" s="7">
-        <v>3.6832330000000002E-23</v>
-      </c>
+        <v>-7.3020600000000002E-23</v>
+      </c>
+      <c r="S10" s="7"/>
       <c r="T10" s="9">
-        <v>7.3479999999999999</v>
+        <v>1.0443748366568799</v>
       </c>
       <c r="U10" s="16">
-        <v>-2.669</v>
+        <v>-1.5523654605154001E-4</v>
       </c>
       <c r="V10" s="13">
-        <v>0.15420349999999999</v>
+        <v>1.709203E-6</v>
       </c>
       <c r="W10" s="16">
-        <v>3.5419460000000002E-8</v>
-      </c>
-      <c r="AH10" s="11">
-        <v>8.2359770000000001E-17</v>
-      </c>
-      <c r="AI10" s="11">
-        <v>3.4359679999999999E-18</v>
+        <v>3.2365010000000002E-8</v>
+      </c>
+      <c r="AH10" s="13">
+        <v>2.3150990000000001E-17</v>
       </c>
       <c r="AJ10" s="12">
-        <v>0.99995619999999996</v>
+        <v>0.99991459999999999</v>
       </c>
       <c r="AK10" s="9">
-        <v>17451.400000000001</v>
+        <v>18855.07</v>
       </c>
       <c r="AL10" s="3">
-        <v>-34860.58</v>
+        <v>-37676.370000000003</v>
       </c>
       <c r="AM10" s="7">
-        <f>AL10-AL3</f>
-        <v>210.70999999999913</v>
+        <f>AL10-AL5</f>
+        <v>16.879999999997381</v>
       </c>
       <c r="AN10" s="3"/>
     </row>
-    <row r="11" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="E11" s="14">
         <v>0</v>
       </c>
       <c r="F11" s="9">
-        <v>10.314819999999999</v>
+        <v>10.098179999999999</v>
       </c>
       <c r="G11" s="9">
-        <v>-7.7383999999999994E-2</v>
-      </c>
-      <c r="H11" s="9">
-        <v>-3.5592549999999998</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="9">
-        <v>-1.4064639999999999</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="9">
-        <v>-0.71697999999999995</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="9">
-        <v>-1.5222640000000001</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="9">
-        <v>-0.36386499999999999</v>
-      </c>
-      <c r="Q11" s="3"/>
+        <v>-0.1046285</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="9">
+        <v>-9.6248790000000001E-10</v>
+      </c>
+      <c r="S11" s="9">
+        <v>2.331059E-11</v>
+      </c>
       <c r="T11" s="9">
-        <v>8.2430000000000003</v>
+        <v>8.2850881578340996</v>
       </c>
       <c r="U11" s="13">
-        <v>0.1</v>
+        <v>9.3710028230250694E-2</v>
       </c>
       <c r="V11" s="13">
-        <v>0.29478293100000003</v>
+        <v>0.17934739999999999</v>
       </c>
       <c r="W11" s="13">
-        <v>5.9789459999999997E-3</v>
-      </c>
-      <c r="X11" s="13">
-        <v>0.28278828900000003</v>
-      </c>
-      <c r="Z11" s="13">
-        <v>0.26886333099999998</v>
-      </c>
-      <c r="AB11" s="13">
-        <v>0.272947628</v>
-      </c>
-      <c r="AD11" s="13">
-        <v>0.33484382600000001</v>
-      </c>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13">
-        <v>0.37223751500000002</v>
+        <v>7.6100509999999996E-3</v>
+      </c>
+      <c r="AH11" s="13">
+        <v>6.2030549999999999E-11</v>
+      </c>
+      <c r="AI11" s="13">
+        <v>3.44733E-12</v>
       </c>
       <c r="AJ11" s="15">
-        <v>1.1521590000000001E-37</v>
+        <v>3.4448570000000002E-42</v>
       </c>
       <c r="AK11" s="9">
-        <v>-11496.96</v>
+        <v>-11501.8</v>
       </c>
       <c r="AL11" s="9">
-        <v>23061.47</v>
-      </c>
-      <c r="AM11" s="9">
-        <f>AL11-AL3</f>
-        <v>58132.76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.6">
+        <v>23045.81</v>
+      </c>
+      <c r="AM11" s="9"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="7">
-        <v>12.05444</v>
-      </c>
-      <c r="G12" s="7">
-        <v>-1.9085530000000001E-12</v>
-      </c>
-      <c r="H12" s="9">
-        <v>-2.468867E-12</v>
-      </c>
-      <c r="J12" s="9">
-        <v>-1.7581859999999999E-12</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="9">
-        <v>-1.543247E-12</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="9">
-        <v>-1.5785169999999999E-12</v>
-      </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="9">
-        <v>-6.5612249999999996E-13</v>
+      <c r="F12" s="3">
+        <v>1.057456E-10</v>
+      </c>
+      <c r="G12" s="3">
+        <v>-3.4917359999999999E-12</v>
+      </c>
+      <c r="R12" s="7">
+        <v>-4.4077350000000001E-22</v>
+      </c>
+      <c r="S12" s="7">
+        <v>1.6492819999999999E-23</v>
       </c>
       <c r="T12" s="9">
-        <v>7.3520000000000003</v>
+        <v>1.0443748366568699</v>
       </c>
       <c r="U12" s="16">
-        <v>-2.669</v>
+        <v>-8.7647112986255507E-5</v>
       </c>
       <c r="V12" s="13">
-        <v>0.15425340000000001</v>
-      </c>
-      <c r="W12" s="11">
-        <v>3.5212030000000001E-8</v>
-      </c>
-      <c r="X12" s="13">
-        <v>2.5127180000000002E-7</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>2.3143589999999999E-7</v>
-      </c>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13">
-        <v>2.4024539999999999E-7</v>
-      </c>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13">
-        <v>2.6997389999999999E-7</v>
-      </c>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13">
-        <v>2.8392080000000001E-7</v>
+        <v>1.7245439999999999E-6</v>
+      </c>
+      <c r="W12" s="16">
+        <v>3.271623E-8</v>
+      </c>
+      <c r="AH12" s="11">
+        <v>6.7992630000000004E-17</v>
+      </c>
+      <c r="AI12" s="11">
+        <v>2.8670589999999999E-18</v>
       </c>
       <c r="AJ12" s="12">
-        <v>0.99995679999999998</v>
+        <v>0.99991479999999999</v>
       </c>
       <c r="AK12" s="9">
-        <v>17453.93</v>
-      </c>
-      <c r="AL12" s="7">
-        <v>-34840.33</v>
+        <v>18855.07</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>-37667.919999999998</v>
       </c>
       <c r="AM12" s="7">
-        <f>AL12-AL3</f>
-        <v>230.95999999999913</v>
+        <f>AL12-AL5</f>
+        <v>25.330000000001746</v>
       </c>
       <c r="AN12" s="3"/>
     </row>
-    <row r="13" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>79</v>
@@ -1890,109 +1737,79 @@
         <v>25</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="14">
         <v>0</v>
       </c>
       <c r="F13" s="9">
-        <v>12.52266653</v>
+        <v>10.314820129999999</v>
       </c>
       <c r="G13" s="9">
-        <v>-0.17372312000000001</v>
+        <v>-7.7383629999999995E-2</v>
       </c>
       <c r="H13" s="9">
-        <v>-7.0527974000000002</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.18793129</v>
-      </c>
+        <v>-3.5592550300000001</v>
+      </c>
+      <c r="I13" s="3"/>
       <c r="J13" s="9">
-        <v>-2.25853196</v>
-      </c>
-      <c r="K13" s="3">
-        <v>3.4825479999999999E-2</v>
-      </c>
+        <v>-1.4064643999999999</v>
+      </c>
+      <c r="K13" s="3"/>
       <c r="L13" s="9">
-        <v>-3.1320450599999998</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0.10479305999999999</v>
-      </c>
+        <v>-0.71697979000000001</v>
+      </c>
+      <c r="M13" s="3"/>
       <c r="N13" s="9">
-        <v>-4.6106573300000004</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0.14325590999999999</v>
-      </c>
+        <v>-1.5222638900000001</v>
+      </c>
+      <c r="O13" s="3"/>
       <c r="P13" s="9">
-        <v>-0.30643763000000002</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>-2.3688460000000001E-2</v>
-      </c>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
+        <v>-0.36386455000000001</v>
+      </c>
+      <c r="Q13" s="3"/>
       <c r="T13" s="9">
-        <v>8.0630000000000006</v>
+        <v>8.2303460402700495</v>
       </c>
       <c r="U13" s="13">
-        <v>0.12</v>
+        <v>9.9698163930998507E-2</v>
       </c>
       <c r="V13" s="13">
-        <v>0.88944003000000005</v>
+        <v>0.29478293100000003</v>
       </c>
       <c r="W13" s="13">
-        <v>3.7140289999999999E-2</v>
+        <v>5.9789459999999997E-3</v>
       </c>
       <c r="X13" s="13">
-        <v>0.91185693000000001</v>
-      </c>
-      <c r="Y13" s="13">
-        <v>3.923658E-2</v>
+        <v>0.28278828900000003</v>
       </c>
       <c r="Z13" s="13">
-        <v>0.91939926999999999</v>
-      </c>
-      <c r="AA13" s="13">
-        <v>3.850489E-2</v>
+        <v>0.26886333099999998</v>
       </c>
       <c r="AB13" s="13">
-        <v>0.92711790000000005</v>
-      </c>
-      <c r="AC13" s="13">
-        <v>3.8510700000000002E-2</v>
+        <v>0.272947628</v>
       </c>
       <c r="AD13" s="13">
-        <v>1.01886049</v>
-      </c>
-      <c r="AE13" s="13">
-        <v>4.4272499999999999E-2</v>
-      </c>
+        <v>0.33484382600000001</v>
+      </c>
+      <c r="AE13" s="13"/>
       <c r="AF13" s="13">
-        <v>1.2174767799999999</v>
-      </c>
-      <c r="AG13" s="13">
-        <v>5.59283E-2</v>
-      </c>
-      <c r="AI13" s="13"/>
+        <v>0.37223751500000002</v>
+      </c>
       <c r="AJ13" s="15">
-        <v>2.9868159999999999E-6</v>
+        <v>1.1521590000000001E-37</v>
       </c>
       <c r="AK13" s="9">
-        <v>-11457.3</v>
+        <v>-11486.4</v>
       </c>
       <c r="AL13" s="9">
-        <v>23024.33</v>
-      </c>
-      <c r="AM13" s="9">
-        <f>AL13-AL3</f>
-        <v>58095.62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.6">
+        <v>23040.35</v>
+      </c>
+      <c r="AM13" s="9"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>79</v>
@@ -2001,204 +1818,316 @@
         <v>25</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="6">
         <v>1</v>
       </c>
       <c r="F14" s="7">
-        <v>12.05444</v>
+        <v>1.062868E-10</v>
       </c>
       <c r="G14" s="7">
-        <v>-2.4095729999999999E-12</v>
+        <v>-3.473271E-12</v>
       </c>
       <c r="H14" s="9">
-        <v>-1.8935220000000001E-11</v>
-      </c>
-      <c r="I14" s="3">
-        <v>6.5548909999999995E-13</v>
+        <v>-2.121096E-12</v>
       </c>
       <c r="J14" s="9">
-        <v>-1.437768E-11</v>
-      </c>
-      <c r="K14" s="3">
-        <v>4.8886359999999996E-13</v>
-      </c>
+        <v>-2.1699789999999998E-12</v>
+      </c>
+      <c r="K14" s="3"/>
       <c r="L14" s="9">
-        <v>-1.40607E-11</v>
-      </c>
-      <c r="M14" s="3">
-        <v>4.8100979999999997E-13</v>
-      </c>
+        <v>-1.6178539999999999E-12</v>
+      </c>
+      <c r="M14" s="3"/>
       <c r="N14" s="9">
-        <v>-1.571998E-11</v>
-      </c>
-      <c r="O14" s="3">
-        <v>5.5010599999999998E-13</v>
-      </c>
+        <v>-1.3908780000000001E-12</v>
+      </c>
+      <c r="O14" s="3"/>
       <c r="P14" s="9">
-        <v>-9.5452489999999994E-12</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>3.1909749999999999E-13</v>
-      </c>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
+        <v>-1.601387E-12</v>
+      </c>
       <c r="T14" s="9">
-        <v>7.36</v>
-      </c>
-      <c r="U14" s="11">
-        <v>-2.669</v>
+        <v>1.0443748366568499</v>
+      </c>
+      <c r="U14" s="16">
+        <v>-2.7873005315370799E-5</v>
       </c>
       <c r="V14" s="13">
-        <v>0.15433659999999999</v>
+        <v>1.724403E-6</v>
       </c>
       <c r="W14" s="11">
-        <v>5.6402760000000002E-8</v>
+        <v>3.2388610000000001E-8</v>
       </c>
       <c r="X14" s="13">
-        <v>1.2232410000000001E-6</v>
-      </c>
-      <c r="Y14" s="13">
-        <v>4.6699570000000003E-8</v>
+        <v>2.4352349999999999E-7</v>
       </c>
       <c r="Z14" s="13">
-        <v>1.1921369999999999E-6</v>
-      </c>
-      <c r="AA14" s="13">
-        <v>4.5012440000000001E-8</v>
-      </c>
+        <v>2.267752E-7</v>
+      </c>
+      <c r="AA14" s="13"/>
       <c r="AB14" s="13">
-        <v>1.211324E-6</v>
-      </c>
-      <c r="AC14" s="13">
-        <v>4.5488249999999997E-8</v>
-      </c>
+        <v>2.36051E-7</v>
+      </c>
+      <c r="AC14" s="13"/>
       <c r="AD14" s="13">
-        <v>1.272067E-6</v>
-      </c>
-      <c r="AE14" s="13">
-        <v>4.927333E-8</v>
-      </c>
+        <v>2.6410920000000001E-7</v>
+      </c>
+      <c r="AE14" s="13"/>
       <c r="AF14" s="13">
-        <v>1.3367630000000001E-6</v>
-      </c>
-      <c r="AG14" s="13">
-        <v>5.2737300000000001E-8</v>
-      </c>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
+        <v>2.8373169999999999E-7</v>
+      </c>
       <c r="AJ14" s="12">
-        <v>0.99996589999999996</v>
+        <v>0.99991439999999998</v>
       </c>
       <c r="AK14" s="9">
-        <v>17370.57</v>
-      </c>
-      <c r="AL14" s="3">
-        <v>-34631.410000000003</v>
+        <v>18855.07</v>
+      </c>
+      <c r="AL14" s="7">
+        <v>-37642.589999999997</v>
       </c>
       <c r="AM14" s="7">
-        <f>AL14-AL3</f>
-        <v>439.87999999999738</v>
+        <f>AL14-AL5</f>
+        <v>50.660000000003492</v>
       </c>
       <c r="AN14" s="3"/>
     </row>
-    <row r="15" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="14">
         <v>0</v>
       </c>
       <c r="F15" s="9">
-        <v>717.68349999999998</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
+        <v>12.52266653</v>
+      </c>
+      <c r="G15" s="9">
+        <v>-0.17372312000000001</v>
+      </c>
+      <c r="H15" s="9">
+        <v>-7.0527974000000002</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.18793129</v>
+      </c>
+      <c r="J15" s="9">
+        <v>-2.25853196</v>
+      </c>
+      <c r="K15" s="9">
+        <v>3.4825479999999999E-2</v>
+      </c>
+      <c r="L15" s="9">
+        <v>-3.1320450599999998</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0.10479305999999999</v>
+      </c>
+      <c r="N15" s="9">
+        <v>-4.6106573300000004</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0.14325590999999999</v>
+      </c>
+      <c r="P15" s="9">
+        <v>-0.30643763000000002</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>-2.3688460000000001E-2</v>
+      </c>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
       <c r="T15" s="9">
-        <v>148904.288</v>
-      </c>
-      <c r="U15" s="13"/>
-      <c r="AJ15" s="15"/>
-      <c r="AK15" s="10">
-        <v>-34192.25</v>
+        <v>8.0420084883462994</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0.120300049072652</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0.88944003000000005</v>
+      </c>
+      <c r="W15" s="13">
+        <v>3.7140289999999999E-2</v>
+      </c>
+      <c r="X15" s="13">
+        <v>0.91185693000000001</v>
+      </c>
+      <c r="Y15" s="13">
+        <v>3.923658E-2</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>0.91939926999999999</v>
+      </c>
+      <c r="AA15" s="13">
+        <v>3.850489E-2</v>
+      </c>
+      <c r="AB15" s="13">
+        <v>0.92711790000000005</v>
+      </c>
+      <c r="AC15" s="13">
+        <v>3.8510700000000002E-2</v>
+      </c>
+      <c r="AD15" s="13">
+        <v>1.01886049</v>
+      </c>
+      <c r="AE15" s="13">
+        <v>4.4272499999999999E-2</v>
+      </c>
+      <c r="AF15" s="13">
+        <v>1.2174767799999999</v>
+      </c>
+      <c r="AG15" s="13">
+        <v>5.59283E-2</v>
+      </c>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="15">
+        <v>2.9868159999999999E-6</v>
+      </c>
+      <c r="AK15" s="9">
+        <v>-11432.64</v>
       </c>
       <c r="AL15" s="9">
-        <v>68401.39</v>
-      </c>
-      <c r="AM15" s="9">
-        <f>AL15-AL18</f>
-        <v>45669.119999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.6">
+        <v>22975.040000000001</v>
+      </c>
+      <c r="AM15" s="9"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
       </c>
       <c r="F16" s="7">
-        <v>2149.7310000000002</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="Q16" s="1"/>
+        <v>1.1829590000000001E-10</v>
+      </c>
+      <c r="G16" s="7">
+        <v>-3.8972599999999999E-12</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-1.451364E-11</v>
+      </c>
+      <c r="I16" s="3">
+        <v>4.7180710000000003E-13</v>
+      </c>
+      <c r="J16" s="9">
+        <v>-1.38052E-11</v>
+      </c>
+      <c r="K16" s="3">
+        <v>4.3405749999999999E-13</v>
+      </c>
+      <c r="L16" s="9">
+        <v>-1.2197579999999999E-11</v>
+      </c>
+      <c r="M16" s="3">
+        <v>3.9278980000000002E-13</v>
+      </c>
+      <c r="N16" s="9">
+        <v>-1.2495710000000001E-11</v>
+      </c>
+      <c r="O16" s="3">
+        <v>4.1171999999999999E-13</v>
+      </c>
+      <c r="P16" s="9">
+        <v>-8.8113059999999992E-12</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>2.4481329999999998E-13</v>
+      </c>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
       <c r="T16" s="9">
-        <v>1083975.1100000001</v>
-      </c>
-      <c r="U16" s="11"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="10">
-        <v>-11961.46</v>
-      </c>
-      <c r="AL16" s="7">
-        <v>23939.81</v>
+        <v>1.04437483665681</v>
+      </c>
+      <c r="U16" s="11">
+        <v>-2.9660280282950402E-4</v>
+      </c>
+      <c r="V16" s="13">
+        <v>2.0986199999999998E-6</v>
+      </c>
+      <c r="W16" s="11">
+        <v>5.4423459999999998E-8</v>
+      </c>
+      <c r="X16" s="13">
+        <v>1.2387009999999999E-6</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>4.5856160000000002E-8</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>1.220194E-6</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>4.462428E-8</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>1.2392839999999999E-6</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>4.5287050000000003E-8</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>1.282401E-6</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>4.79759E-8</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>1.3801440000000001E-6</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>5.250799E-8</v>
+      </c>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="12">
+        <v>0.99994289999999997</v>
+      </c>
+      <c r="AK16" s="9">
+        <v>18855.07</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>-37600.370000000003</v>
       </c>
       <c r="AM16" s="7">
-        <f>AL16-AL18</f>
-        <v>1207.5400000000009</v>
-      </c>
-      <c r="AN16" s="7"/>
-    </row>
-    <row r="17" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
+        <f>AL16-AL5</f>
+        <v>92.879999999997381</v>
+      </c>
+      <c r="AN16" s="3"/>
+    </row>
+    <row r="17" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="14">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="F17" s="9">
-        <v>142.00948</v>
-      </c>
-      <c r="G17" s="9">
-        <v>27.459579999999999</v>
+        <v>4.78E-10</v>
       </c>
       <c r="I17" s="1"/>
       <c r="K17" s="1"/>
@@ -2208,266 +2137,219 @@
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="9">
-        <v>100969.285</v>
-      </c>
-      <c r="U17" s="13">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="V17" s="13">
-        <v>13.125512000000001</v>
-      </c>
-      <c r="W17" s="13">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="AJ17" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="10">
-        <v>-33290.86</v>
+        <v>7.1075657157640002</v>
+      </c>
+      <c r="U17" s="13"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="9">
+        <v>-14364.330129</v>
       </c>
       <c r="AL17" s="9">
-        <v>66607.039999999994</v>
+        <f>(LN(4645)*2)-(2*AK17)</f>
+        <v>28745.547351302495</v>
       </c>
       <c r="AM17" s="9">
-        <f>AL17-AL18</f>
-        <v>43874.76999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.6">
-      <c r="A18" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7">
-        <v>1796.6313</v>
-      </c>
-      <c r="G18" s="7">
-        <v>-5.9999999999999995E-4</v>
-      </c>
+        <f>AL17-AL19</f>
+        <v>66439.554042000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="9">
+        <v>7.7000000000000006E-11</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
       <c r="T18" s="9">
-        <v>830432.78500000003</v>
-      </c>
-      <c r="U18" s="11">
-        <v>-7.819</v>
-      </c>
-      <c r="V18" s="13">
-        <v>0.58518300000000001</v>
-      </c>
-      <c r="W18" s="11">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="AJ18" s="12">
-        <v>9.9469393622001894E-271</v>
-      </c>
-      <c r="AK18" s="10">
-        <v>-11353.47</v>
-      </c>
-      <c r="AL18" s="3">
-        <v>22732.27</v>
+        <v>1.0442015764699999</v>
+      </c>
+      <c r="U18" s="13"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="9">
+        <v>18855.446892</v>
+      </c>
+      <c r="AL18" s="7">
+        <f>(LN(4645)*2)-(2*AK18)</f>
+        <v>-37694.006690697504</v>
       </c>
       <c r="AM18" s="7">
         <v>0</v>
       </c>
-      <c r="AN18" s="3"/>
-    </row>
-    <row r="19" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="10" t="s">
+    </row>
+    <row r="19" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="9">
-        <v>4.78E-10</v>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7">
+        <v>7.7000000000000006E-11</v>
       </c>
       <c r="I19" s="1"/>
       <c r="K19" s="1"/>
       <c r="M19" s="1"/>
       <c r="O19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
       <c r="T19" s="9">
-        <v>7.1075657157640002</v>
-      </c>
-      <c r="U19" s="13"/>
-      <c r="AJ19" s="15"/>
+        <v>1.0442015764699999</v>
+      </c>
+      <c r="U19" s="11"/>
+      <c r="AJ19" s="12"/>
       <c r="AK19" s="9">
-        <v>-14364.330129</v>
-      </c>
-      <c r="AL19" s="9">
+        <v>18855.446892</v>
+      </c>
+      <c r="AL19" s="7">
         <f>(LN(4645)*2)-(2*AK19)</f>
-        <v>28745.547351302495</v>
-      </c>
-      <c r="AM19" s="9">
-        <f>AL19-AL20</f>
-        <v>66439.554042000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="6" t="s">
+        <v>-37694.006690697504</v>
+      </c>
+      <c r="AM19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7">
-        <v>7.7000000000000006E-11</v>
+      <c r="F20" s="9">
+        <v>-8.2099999999999996E-10</v>
+      </c>
+      <c r="G20" s="9">
+        <v>8.3999999999999994E-11</v>
       </c>
       <c r="I20" s="1"/>
       <c r="K20" s="1"/>
       <c r="M20" s="1"/>
       <c r="O20" s="1"/>
       <c r="Q20" s="1"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
       <c r="T20" s="9">
-        <v>1.0442015764699999</v>
-      </c>
-      <c r="U20" s="11"/>
-      <c r="AJ20" s="12"/>
+        <v>7.1060355612209998</v>
+      </c>
+      <c r="U20" s="13">
+        <v>6.4999999999999995E-11</v>
+      </c>
+      <c r="V20" s="13">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="W20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="AK20" s="9">
-        <v>18855.446892</v>
-      </c>
-      <c r="AL20" s="7">
-        <f>(LN(4645)*2)-(2*AK20)</f>
-        <v>-37694.006690697504</v>
-      </c>
-      <c r="AM20" s="7">
+        <v>-14364.330129</v>
+      </c>
+      <c r="AL20" s="9">
+        <f>(LN(4645)*3)-(2*AK20)</f>
+        <v>28753.990897953743</v>
+      </c>
+      <c r="AM20" s="9">
+        <f>AL20-AL19</f>
+        <v>66447.997588651255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1.04E-10</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-3.0000000000000001E-12</v>
+      </c>
+      <c r="T21" s="9">
+        <v>1.044091000396</v>
+      </c>
+      <c r="U21" s="16">
+        <v>2E-12</v>
+      </c>
+      <c r="V21" s="13">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="W21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:40" s="10" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="AJ21" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="9">
-        <v>-8.2099999999999996E-10</v>
-      </c>
-      <c r="G21" s="9">
-        <v>8.3999999999999994E-11</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="9">
-        <v>7.1060355612209998</v>
-      </c>
-      <c r="U21" s="13">
-        <v>6.4999999999999995E-11</v>
-      </c>
-      <c r="V21" s="13">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="W21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="15" t="s">
-        <v>74</v>
-      </c>
       <c r="AK21" s="9">
-        <v>-14364.330129</v>
-      </c>
-      <c r="AL21" s="9">
-        <f>(LN(4645)*3)-(2*AK21)</f>
-        <v>28753.990897953743</v>
-      </c>
-      <c r="AM21" s="9">
-        <f>AL21-AL20</f>
-        <v>66447.997588651255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.6">
-      <c r="A22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1.04E-10</v>
-      </c>
-      <c r="G22" s="3">
-        <v>-3.0000000000000001E-12</v>
-      </c>
-      <c r="T22" s="9">
-        <v>1.044091000396</v>
-      </c>
-      <c r="U22" s="16">
-        <v>2E-12</v>
-      </c>
-      <c r="V22" s="13">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="W22" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK22" s="9">
         <v>18855.509415</v>
       </c>
-      <c r="AL22" s="3">
-        <f>(LN(3958)*3)-(2*AK22)</f>
+      <c r="AL21" s="3">
+        <f>(LN(3958)*3)-(2*AK21)</f>
         <v>-37686.168347621511</v>
       </c>
-      <c r="AM22" s="7">
-        <f>AL22-AL20</f>
+      <c r="AM21" s="7">
+        <f>AL21-AL19</f>
         <v>7.8383430759931798</v>
       </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="H23" s="9"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2641,15 +2523,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2673,17 +2566,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC47B0-AA78-47A5-9B79-6FFFCCC52CA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7098F935-E50E-46DE-B412-A9D64960AB3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="677f5592-671a-486f-9aac-5097e59069f9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>